--- a/VersionRecords/Version 5.1.0/配置文件/上线配置文件-EQ组-薛冠宙.xlsx
+++ b/VersionRecords/Version 5.1.0/配置文件/上线配置文件-EQ组-薛冠宙.xlsx
@@ -31,10 +31,6 @@
     <t>新增</t>
   </si>
   <si>
-    <t>sysconfig.qimo_token=c8ea01e0ebe711e5
-sysconfig.qimo_request_url=http://wechat.7moor.com/Icallback</t>
-  </si>
-  <si>
     <t>微信七陌对接配置：
 1、七陌token
 2、请求七陌的url</t>
@@ -86,6 +82,15 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>预发：sysconfig.qimo_token=bbaae710a58211e6
+sysconfig.qimo_request_url=http://wechat.7moor.com/Icallback
+公测：sysconfig.qimo_token=d9268290a58211e6   
+sysconfig.qimo_request_url=http://wechat.7moor.com/Icallback
+生产：sysconfig.qimo_token=e3ac24e0a58211e6
+sysconfig.qimo_request_url=http://wechat.7moor.com/Icallback</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -249,7 +254,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -502,7 +507,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -515,43 +520,43 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="111.95" customHeight="1">
@@ -574,22 +579,22 @@
         <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="M2" s="3"/>
     </row>
